--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3813802.816432795</v>
+        <v>3811550.736721589</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>82.13306042727054</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>143.0659977617362</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +786,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>61.058014877892</v>
       </c>
       <c r="E4" t="n">
-        <v>14.57567088453384</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46.36893455027662</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846104</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>59.50286836346312</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.051689109229</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>283.9746808062644</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.68269007697828</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>131.5522128412691</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.155902292902968</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417108</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877915</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>20.92847288552853</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
-        <v>104.8913819999782</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.038871968308</v>
+        <v>1540.864437266279</v>
       </c>
       <c r="C2" t="n">
-        <v>869.0763550278964</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D2" t="n">
-        <v>786.1136677276231</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276231</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>1927.464277330401</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.63871203243</v>
+        <v>1927.464277330401</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>639.3706644025392</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="C4" t="n">
-        <v>639.3706644025392</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="D4" t="n">
-        <v>639.3706644025392</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4516,22 +4516,22 @@
         <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025392</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025392</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V4" t="n">
-        <v>639.3706644025392</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="W4" t="n">
-        <v>639.3706644025392</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="X4" t="n">
-        <v>639.3706644025392</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="Y4" t="n">
-        <v>639.3706644025392</v>
+        <v>128.1868789351046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1261.532988317206</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C5" t="n">
-        <v>892.5704713767946</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>892.5704713767946</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>739.2385409879453</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C7" t="n">
-        <v>739.2385409879453</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>589.1219015756095</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>441.2088079932164</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>294.318860495306</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>126.616023870025</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473105</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E8" t="n">
-        <v>764.3411331473105</v>
+        <v>198.893319710031</v>
       </c>
       <c r="F8" t="n">
-        <v>353.355228357703</v>
+        <v>191.9478189608275</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>180.9157728462281</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.445961844415</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>349.5097789165081</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>199.3931395041724</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
         <v>66.51211643218342</v>
@@ -4990,22 +4990,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.0944266746548</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>692.9625378792909</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1320.560501433898</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1872.470231673185</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908939</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,13 +5276,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5419,13 +5419,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,31 +5732,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5768,31 +5768,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273902</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273902</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>229.5592957321584</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,67 +5969,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6124,25 +6124,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,19 +6212,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,7 +6233,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1520.445529061503</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,19 +6838,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8536007400712</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>366.9636532421608</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>199.7675539570408</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,16 +7072,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,22 +7257,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>38.59775584152675</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>125.5054897610406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
-        <v>35.40333084624568</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>640787.2138850625</v>
+        <v>640787.2138850624</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>640787.2138850625</v>
+        <v>640787.2138850624</v>
       </c>
     </row>
     <row r="10">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176758</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176759</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176758</v>
-      </c>
       <c r="E2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977561</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="G2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977555</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977557</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
+        <v>16046.58397189201</v>
+      </c>
+      <c r="F4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>16046.58397189195</v>
+      </c>
+      <c r="H4" t="n">
         <v>16046.583971892</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>16046.583971892</v>
       </c>
-      <c r="H4" t="n">
-        <v>16046.58397189203</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16046.58397189203</v>
-      </c>
       <c r="J4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.583971892</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
@@ -26448,7 +26448,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729759.7047753627</v>
+        <v>-729759.7047753625</v>
       </c>
       <c r="C6" t="n">
+        <v>598985.04095223</v>
+      </c>
+      <c r="D6" t="n">
         <v>598985.0409522301</v>
       </c>
-      <c r="D6" t="n">
-        <v>598985.04095223</v>
-      </c>
       <c r="E6" t="n">
-        <v>344386.3590946018</v>
+        <v>344351.6211691656</v>
       </c>
       <c r="F6" t="n">
-        <v>669798.8209019566</v>
+        <v>669764.0829765213</v>
       </c>
       <c r="G6" t="n">
-        <v>669798.8209019566</v>
+        <v>669764.082976521</v>
       </c>
       <c r="H6" t="n">
-        <v>669798.8209019568</v>
+        <v>669764.0829765209</v>
       </c>
       <c r="I6" t="n">
-        <v>669798.8209019569</v>
+        <v>669764.0829765212</v>
       </c>
       <c r="J6" t="n">
-        <v>452267.6185046792</v>
+        <v>452232.8805792436</v>
       </c>
       <c r="K6" t="n">
-        <v>669798.8209019564</v>
+        <v>669764.0829765208</v>
       </c>
       <c r="L6" t="n">
-        <v>669798.8209019566</v>
+        <v>669764.0829765211</v>
       </c>
       <c r="M6" t="n">
-        <v>584743.7929664449</v>
+        <v>584709.0550410092</v>
       </c>
       <c r="N6" t="n">
-        <v>669798.8209019566</v>
+        <v>669764.082976521</v>
       </c>
       <c r="O6" t="n">
-        <v>669798.8209019566</v>
+        <v>669764.0829765213</v>
       </c>
       <c r="P6" t="n">
-        <v>669798.8209019566</v>
+        <v>669764.082976521</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>272.5499811934124</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>226.6651029167329</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>87.55745814032036</v>
       </c>
       <c r="E4" t="n">
-        <v>131.8582917620353</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>336.364907113204</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.8193423825465</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>85.25214655085766</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,16 +27828,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>7.160149096383918</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>126.9470448471891</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>14.8817498053001</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28062,10 +28062,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>284.0559359127099</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.07318341828168e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -31613,7 +31613,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>522.1224556861836</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,13 +33415,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -35261,7 +35261,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>379.5262112417391</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,13 +37063,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
